--- a/data/trans_dic/P19F$mañana-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19F$mañana-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>38,77; 51,8</t>
+          <t>38,93; 52,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>38,96; 53,03</t>
+          <t>38,73; 53,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>40,51; 50,08</t>
+          <t>40,95; 50,71</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>37,44; 48,39</t>
+          <t>37,78; 48,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>36,42; 47,97</t>
+          <t>36,22; 48,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>38,57; 46,52</t>
+          <t>38,7; 46,92</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>33,06; 43,28</t>
+          <t>32,67; 43,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>38,58; 49,49</t>
+          <t>38,9; 50,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>37,49; 45,12</t>
+          <t>37,37; 45,2</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>32,38; 44,01</t>
+          <t>32,75; 44,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>43,62; 54,48</t>
+          <t>43,34; 54,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,39; 47,62</t>
+          <t>39,62; 47,14</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>37,13; 50,97</t>
+          <t>36,93; 50,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>41,76; 54,97</t>
+          <t>42,06; 55,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>41,75; 50,91</t>
+          <t>42,11; 51,54</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>30,81; 45,16</t>
+          <t>30,88; 45,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>39,96; 54,93</t>
+          <t>39,93; 54,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>37,38; 47,51</t>
+          <t>37,34; 47,74</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>34,59; 49,71</t>
+          <t>33,78; 50,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>26,35; 41,41</t>
+          <t>25,76; 41,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>31,25; 42,94</t>
+          <t>31,62; 43,45</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>38,71; 43,42</t>
+          <t>38,66; 43,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>42,57; 47,49</t>
+          <t>42,51; 47,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>41,2; 44,45</t>
+          <t>41,32; 44,73</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, se cepilla los dientes por la mañana</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>103163</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>81750</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>184914</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>89184; 119734</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>69041; 95167</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>166826; 206548</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>141412</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>114195</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>255607</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>124020; 159412</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>98448; 131789</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>232202; 281552</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>131867</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>145061</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>276927</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>113556; 151003</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>126778; 163191</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>251679; 304412</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>129789</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>162478</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>292267</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>111187; 150041</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>143481; 180945</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>265696; 316066</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>102673</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>128364</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>231037</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>86912; 119069</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>110553; 144867</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>209789; 256725</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>65385</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>87566</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>152951</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>53612; 79306</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>73786; 101537</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>133830; 171087</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>52713</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>63270</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>115983</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>42377; 63504</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>48408; 78654</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>99107; 136184</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>733</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1434</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>727003</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>782683</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1509686</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>687665; 768305</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>740774; 825126</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1455044; 1575069</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>